--- a/dat/928264621910003723/나비인간.xlsx
+++ b/dat/928264621910003723/나비인간.xlsx
@@ -24,24 +24,6 @@
     <t>`=====[나비 인간: 환상의 빛 1부]=====</t>
   </si>
   <si>
-    <t xml:space="preserve">판초를 두른 남자는 울고 있었고, 그의 품에는 소년이 가슴에 피를 흘리며 쓰러져 있었다. 
-탐정 보조는 바로 소년의 상태를 확인했다. 소년은 죽어 있었다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조: 탐정 협회에서 이곳, 나비 섬의 조사를 맡은 탐정 보조라고 합니다. 지금 도착했는데 벌써 살인 사건이 일어났을 줄이야……! 여기서 대체 무슨 일이 벌어지고 있는 거죠? 이 아이는 누구고, 당신은 누구죠?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조: ...물론이죠. 대신.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조가 가슴에 달린 엠블럼을 가리키며 말했다.
-탐정 보조: 탐정 협회는 모든 살인 사건의 조사에 참여할 권한을 가집니다. 마침 저도 현장에 있으니, 부탐정님을 돕고 싶은데요! 괜찮으시겠죠?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이어서, 숲 속에서 전동 휠체어를 탄 여인이 나타났다. 현장에 도착한 여인은 죽은 아이를 보고 울부짖었다..
 안누나: 아……아아……수영아…… 안돼…… 안돼!!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,29 +33,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이번에는 아무도 나오지 않았다. 탐정 보조는 머리를 긁적였다
-탐정 보조: 착각인가……죄송합니다, 이어서 하시죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://imgur.com/BSntXEY.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부탐정이 끄덕이며 말했다.
-부탐정: 안녕하세요, 여러분. 제 이름은 부탐정입니다. 다들 아시겠지만 저는 이 섬의 치안 유지를 담당하는 경찰입니다. 살인 사건을 방지하지 못하여 정말 죄송합니다. 하지만 범인은 반드시 잡겠습니다! 지금부터 정식으로 탐정 협회의 “탐정 보조” 님과 “합동 수사”를 시작하도록 하겠습니다! 여기 계신 여러분은 모두, 살인 사건의 용의자들입니다. 한 분씩, 자기 소개와 알리바이를 말해 주십시오. 우선, 안누나씨. 당신부터 시작하시죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[자기 소개 및 알리바이 조사] (용의자 자율 진행: 대사 제공되지 않습니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://imgur.com/IT4IZbL.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용의자 여반군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,29 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탐정 보조: 아까 잘못 들은 게 아니었군요. 당신 아까부터 와 있었죠? 이쪽으로 오십시오. 당신도 용의자 입니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양농구가 주춤거리며 탐정 보조의 앞으로 갔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조가 핸드폰에 대고 말했다.
-탐정보조: 협회에 보고 드립니다. 현재 시각 2019년 6월 17일 새벽 1시 55분. 조사지에서 살인 사건 발생했습니다. 시체 발견 시각은 1시 45분으로……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양농구가 탐정보조의 말을 끊었다.
-양농구: 저기요, 틀렸잖아요. 2019년이요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조: 예? 뭐가 틀렸죠?
-탐정 보조를 보며 양농구가 황당하다는 듯이 되물었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양농구: 2119년이잖아요, 지금! 그리고 뭐에다 대고 말하는 거에요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,40 +75,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라직감: 여러분! 중요한 조사 결과가 나왔습니다!
-탐정 보조에게 문서가 전달되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서를 읽어 본 탐정 보조는 용의자들을 불러 모았다.
-탐정 보조: 여러분! 여기로 좀 모여 주세요!!
-부탐정: 무슨 일이시죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조가 용의자들과 부탐정 앞에 문서를 펼쳐 보였다.
-[본명: 부패경 31세 남]
-고등학생 시절 지옥 체육고 수영부의 유망주였으나 부상 이후 자퇴, 잠적.
-친모는 희귀병으로 인해 입원 중.
-11년 전부터 경찰로서 유례 없는 초고속 승진. 4년 전 나비 섬으로 발령되어 섬에 주둔하며 업무 수행 중. 
-매달 친모의 통장에 누군가로부터 거액의 금액이 입금된 기록이 확인됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://imgur.com/VLTUGvA.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탐정 보조: 부탐정…… 아니, 부패경! 당신은 현재 용의자, “나대표” 에게 매수되어 있을 가능성이 제기되었습니다. 저는 당신을 이번 사건을 책임질 탐정으로 인정할 수 없습니다! 현시간 부로 본 사건의 조사는 제가 지휘 하겠습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부패경: 이…… 개 같은 자식이…...!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탐정 보조는 양농구를 향해 돌아보며 말했다.
-탐정 보조: 또한, 용의자 양농구씨는 방금 전 용병의 증언으로 알리바이가 확인되었습니다. 양농구씨! 이곳 주민인 당신의 도움이 필요할 것 같습니다. 당신은 지금부터 저의 탐정 보조를 부탁 드리겠습니다! </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,6 +113,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>조사 지역이 추가되었습니다. [제 4구역 뒷산]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스럭
+숲 속에서 인기척이 느껴 졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의자 안누나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://imgur.com/Ru6K7aI.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 현장 검증 시간이 되었습니다. 플레이어간 대화가 가능합니다. 
+https://blog.naver.com/yongsa0408
+에 접속하여 사건 현장을 먼저 확인하십시오.
+단서는 부탐정이 정하는 순서대로 공개됩니다. 
+1.5차 단서 (부탐정의 재킷, 양농구의 기숙사, 안누나의 휠체어, 나대표의 가방, 여행가의 판초) 는 1차 조사를 다 마치고 조사할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://imgur.com/onH9f16.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철썩 철썩
+명한과 탐정 협회원들이 탄 배가 나비 섬의 해안가에 정박하였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명한이 배에서 내렸다.
+해안가를 둘러 보던 명한은 멀리서 누군가를 발견했다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판초를 두른 젊은 남자가 누군가를 안은 채 모래사장에 주저 앉아 있었다.
+사건이다! 명한은 부리나케 달려가 현장을 확인했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">판초를 두른 남자는 울고 있었고, 그의 품에는 소년이 가슴에 피를 흘리며 쓰러져 있었다. 
+명한은 바로 소년의 상태를 확인했다. 소년은 죽어 있었다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한: 탐정 협회에서 이곳, 나비 섬의 조사를 맡은 현명한이라고 합니다. 지금 도착했는데 벌써 살인 사건이 일어났을 줄이야……! 여기서 대체 무슨 일이 벌어지고 있는 거죠? 이 아이는 누구고, 당신은 누구죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그때, 숲 속에서 부탐정이 뛰어 왔다.
+부탐정: 헉, 헉! 현명한님 인가요?! 연락 받았습니다. 탐정 협회에서 오신다고…… 저는 이 곳 나비섬의 치안을 맡고 있는 부탐정이라고 합니다. 지금 보시다시피 여기서 살인 사건이 발생했습니다! 외람된 말씀이지만, 여긴 저희 관할 구역이니 살인 사건 수사는 저희가 맡도록 하겠습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한: ...물론이죠. 대신.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한이 가슴에 달린 엠블럼을 가리키며 말했다.
+현명한: 탐정 협회는 모든 살인 사건의 조사에 참여할 권한을 가집니다. 마침 저도 현장에 있으니, 부탐정님을 돕고 싶은데요! 괜찮으시겠죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부탐정: 네, 뭐…… 물론 그렇습니다만……앗!! 저기! 저 사람은 최근 섬에서 범죄를 일으킨 범죄자 입니다!! 이 불쌍한 아이, 분명 저 놈이 죽였을 겁니다! 모두의 안전을 위해 이 살인자를 현행범으로 체포하겠습니다!
+현명한: 잠깐! 급하게 행동하지 마세요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그때, 숲 속에서 양복을 입은 중년의 신사가 나타났다. 신사라곤 하나 입은 옷 이곳 저곳에 풀과 흙이 잔뜩 묻어 있었다. 남자가 그들을 향해 걸어 왔다.
+나대표: 거기 누구요! 아이는 어떻게 되었죠?
+현명한: ……다시 뵙는 군요, 나대표씨.
+나대표: ……기어코 여기까지 오다니.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한: 잠깐, 당신은 또 누구죠? 부탐정씨! 역시 이상합니다! 현행범으로 보기에는 너무 많은 사람들이, 부자연스러운 상태로 이곳에 모이고 있습니다! 우선 이 사건에 대한 정확한 수사를 해야 할 것 같습니다!
+부탐정: 알겠습니다. 탐정 협회가 도와 주신다니 정말 든든하군요. 일단 조사를 시작하기에 앞서 우선 현명한님부터, 소개를 좀 해주실까요?
+현명한: ……그러도록 하죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한: 안녕하세요, 여러분. 제 이름은 현명한이라고 합니다. 저희 탐정 협회에서는 나대표씨의 사유지인 이곳, 나비 섬에서 수상한 정황을 포착하여 파견 조사를 나오게 되었습니다. 그런데 지금 이렇게 살인 사건까지 벌어졌으니, 지금부터 섬에 대한 조사와 살인 사건 수사를 병행하도록 하겠습니다. 사건 현장 근처에 있었던 여러분은 용의자들이고 도주의 위험이 있으니 지금부터 저희와 함께 행동하도록 하겠습니다. 그럼 이제 모두, 부탐정님의 지시를 따라 주십시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명한은 숲을 향해 돌아서 외쳤다.
+현명한: 거기 누구죠?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에는 아무도 나오지 않았다. 명한은 머리를 긁적였다
+현명한: 착각인가……죄송합니다, 이어서 하시죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://imgur.com/BSntXEY.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부탐정이 끄덕이며 말했다.
+부탐정: 안녕하세요, 여러분. 제 이름은 부탐정입니다. 다들 아시겠지만 저는 이 섬의 치안 유지를 담당하는 경찰입니다. 살인 사건을 방지하지 못하여 정말 죄송합니다. 하지만 범인은 반드시 잡겠습니다! 지금부터 정식으로 탐정 협회의 “현명한” 님과 “합동 수사”를 시작하도록 하겠습니다! 여기 계신 여러분은 모두, 살인 사건의 용의자들입니다. 한 분씩, 자기 소개와 알리바이를 말해 주십시오. 우선, 안누나씨. 당신부터 시작하시죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의자 여행가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한: 아까 잘못 들은 게 아니었군요. 당신 아까부터 와 있었죠? 이쪽으로 오십시오. 당신도 용의자 입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양농구가 주춤거리며 명한의 앞으로 갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명한이 핸드폰에 대고 말했다.
+현명한: 협회에 보고 드립니다. 현재 시각 2019년 6월 17일 새벽 1시 55분. 조사지에서 살인 사건 발생했습니다. 시체 발견 시각은 1시 45분으로……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양농구가 명한의 말을 끊었다.
+양농구: 저기요, 틀렸잖아요. 2019년이요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한: 예? 뭐가 틀렸죠?
+명한을 보며 양농구가 황당하다는 듯이 되물었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라직감: 여러분! 중요한 조사 결과가 나왔습니다!
+명한에게 문서가 전달되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서를 읽어 본 명한은 용의자들을 불러 모았다.
+현명한: 여러분! 여기로 좀 모여 주세요!!
+부탐정: 무슨 일이시죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명한이 용의자들과 부탐정 앞에 문서를 펼쳐 보였다.
+[본명: 부패경 31세 남]
+고등학생 시절 지옥 체육고 수영부의 유망주였으나 부상 이후 자퇴, 잠적.
+친모는 희귀병으로 인해 입원 중.
+11년 전부터 경찰로서 유례 없는 초고속 승진. 4년 전 나비 섬으로 발령되어 섬에 주둔하며 업무 수행 중. 
+매달 친모의 통장에 누군가로부터 거액의 금액이 입금된 기록이 확인됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현명한: 부탐정…… 아니, 부패경! 당신은 현재 용의자, “나대표” 에게 매수되어 있을 가능성이 제기되었습니다. 저는 당신을 이번 사건을 책임질 탐정으로 인정할 수 없습니다! 현시간 부로 본 사건의 조사는 제가 지휘 하겠습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명한은 양농구를 향해 돌아보며 말했다.
+현명한: 또한, 용의자 양농구씨는 방금 전 용병의 증언으로 알리바이가 확인되었습니다. 양농구씨! 이곳 주민인 당신의 도움이 필요할 것 같습니다. 당신은 지금부터 저의 탐정 보조를 부탁 드리겠습니다! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2차 현장 검증 시간이 되었습니다. 플레이어간 대화가 가능합니다. 
 https://blog.naver.com/yongsa0408
 에 접속하여 제 4구역을 먼저 확인하십시오.
@@ -208,82 +284,6 @@
 순으로 진행됩니다.
 현탐정이 다음 구역으로 이동하겠다고 말하면 다음 구역이 공개됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조사 지역이 추가되었습니다. [제 4구역 뒷산]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조: 안녕하세요, 여러분. 제 이름은 현명한이라고 합니다. 지금은 탐정 보조 라고 불러 주십시오. 저희 탐정 협회에서는 나대표씨의 사유지인 이곳, 나비 섬에서 수상한 정황을 포착하여 파견 조사를 나오게 되었습니다. 그런데 지금 이렇게 살인 사건까지 벌어졌으니, 지금부터 섬에 대한 조사와 살인 사건 수사를 병행하도록 하겠습니다. 사건 현장 근처에 있었던 여러분은 용의자들이고 도주의 위험이 있으니 지금부터 저희와 함께 행동하도록 하겠습니다. 그럼 이제 모두, 부탐정님의 지시를 따라 주십시오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탐정 보조가 배에서 내렸다.
-해안가를 둘러 보던 탐정보조는 멀리서 누군가를 발견했다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판초를 두른 젊은 남자가 누군가를 안은 채 모래사장에 주저 앉아 있었다.
-사건이다! 탐정 보조는 부리나케 달려가 현장을 확인했다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그때, 숲 속에서 부탐정이 뛰어 왔다.
-부탐정: 헉, 헉! 탐정 보조님 인가요?! 연락 받았습니다. 탐정 협회에서 오신다고…… 저는 이 곳 나비섬의 치안을 맡고 있는 부탐정이라고 합니다. 지금 보시다시피 여기서 살인 사건이 발생했습니다! 외람된 말씀이지만, 여긴 저희 관할 구역이니 살인 사건 수사는 저희가 맡도록 하겠습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부탐정: 네, 뭐…… 물론 그렇습니다만……앗!! 저기! 저 사람은 최근 섬에서 범죄를 일으킨 범죄자 입니다!! 이 불쌍한 아이, 분명 저 놈이 죽였을 겁니다! 모두의 안전을 위해 이 살인자를 현행범으로 체포하겠습니다!
-탐정 보조: 잠깐! 급하게 행동하지 마세요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그때, 숲 속에서 양복을 입은 중년의 신사가 나타났다. 신사라곤 하나 입은 옷 이곳 저곳에 풀과 흙이 잔뜩 묻어 있었다. 남자가 그들을 향해 걸어 왔다.
-나대표: 거기 누구요! 아이는 어떻게 되었죠?
-탐정 보조: ……다시 뵙는 군요, 나대표씨.
-나대표: ……기어코 여기까지 오다니.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조: 잠깐, 당신은 또 누구죠? 부탐정씨! 역시 이상합니다! 현행범으로 보기에는 너무 많은 사람들이, 부자연스러운 상태로 이곳에 모이고 있습니다! 우선 이 사건에 대한 정확한 수사를 해야 할 것 같습니다!
-부탐정: 알겠습니다. 탐정 협회가 도와 주신다니 정말 든든하군요. 일단 조사를 시작하기에 앞서 우리 탐정 보조님부터, 소개를 좀 해주실까요?
-탐정 보조: ……그러도록 하죠.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐정 보조는 숲을 향해 돌아서 외쳤다.
-탐정 보조: 거기 누구죠?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부스럭
-숲 속에서 인기척이 느껴 졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용의자 안누나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://imgur.com/Ru6K7aI.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 현장 검증 시간이 되었습니다. 플레이어간 대화가 가능합니다. 
-https://blog.naver.com/yongsa0408
-에 접속하여 사건 현장을 먼저 확인하십시오.
-단서는 부탐정이 정하는 순서대로 공개됩니다. 
-1.5차 단서 (부탐정의 재킷, 양농구의 기숙사, 안누나의 휠체어, 나대표의 가방, 여행가의 판초) 는 1차 조사를 다 마치고 조사할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철썩 철썩
-탐정 보조와 탐정 협회원들이 탄 배가 나비 섬의 해안가에 정박하였다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://imgur.com/onH9f16.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -724,277 +724,277 @@
     </row>
     <row r="3" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="66" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="165" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="148.5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="132" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="66" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="165" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="132" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="165" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="99" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="165" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="132" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
